--- a/Chapter 5/Analysis/page statistics.xlsx
+++ b/Chapter 5/Analysis/page statistics.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -340,16 +341,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +658,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,23 +685,23 @@
     </row>
     <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="2"/>
@@ -728,7 +729,10 @@
       <c r="H3" s="4">
         <v>141183058454</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I8" si="0">ROUND(LOG(F3),1)</f>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -753,7 +757,10 @@
       <c r="H4" s="4">
         <v>6877151199</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -778,7 +785,10 @@
       <c r="H5" s="4">
         <v>100280026258</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -803,7 +813,10 @@
       <c r="H6" s="5">
         <v>15925638948</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -828,7 +841,10 @@
       <c r="H7" s="4">
         <v>144540227138</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -853,7 +869,10 @@
       <c r="H8" s="12">
         <v>7899892356</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
